--- a/big configuration/监控指标整理 HBase.xlsx
+++ b/big configuration/监控指标整理 HBase.xlsx
@@ -13,6 +13,866 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
+  <si>
+    <t>监控指标</t>
+  </si>
+  <si>
+    <t>范围</t>
+  </si>
+  <si>
+    <t>指标含义</t>
+  </si>
+  <si>
+    <t>OpenFileDescriptorCount</t>
+  </si>
+  <si>
+    <r>
+      <t>Regionserver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本机</t>
+    </r>
+  </si>
+  <si>
+    <t>当前机器打开文件数</t>
+  </si>
+  <si>
+    <t>FreePhysicalMemorySize</t>
+  </si>
+  <si>
+    <t>空虚物理内存大小</t>
+  </si>
+  <si>
+    <t>AvailableProcessors</t>
+  </si>
+  <si>
+    <r>
+      <t>可用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cpu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个数</t>
+    </r>
+  </si>
+  <si>
+    <t>Region--storeCount</t>
+  </si>
+  <si>
+    <r>
+      <t>单个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>region</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个数</t>
+    </r>
+  </si>
+  <si>
+    <t>Region--storeFileCount</t>
+  </si>
+  <si>
+    <r>
+      <t>Storefile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个数</t>
+    </r>
+  </si>
+  <si>
+    <t>Region--memStoreSize</t>
+  </si>
+  <si>
+    <r>
+      <t>Memstore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大小</t>
+    </r>
+  </si>
+  <si>
+    <t>Region--storeFileSize</t>
+  </si>
+  <si>
+    <r>
+      <t>Storefile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大小</t>
+    </r>
+  </si>
+  <si>
+    <t>Region--compactionsCompletedCount</t>
+  </si>
+  <si>
+    <t>合并完成次数</t>
+  </si>
+  <si>
+    <t>Region--numBytesCompactedCount</t>
+  </si>
+  <si>
+    <t>合并文件总大小</t>
+  </si>
+  <si>
+    <t>Region-- numFilesCompactedCount</t>
+  </si>
+  <si>
+    <t>合并完成文件个数</t>
+  </si>
+  <si>
+    <t>totalRequestCount</t>
+  </si>
+  <si>
+    <t>Regionserver</t>
+  </si>
+  <si>
+    <t>总请求数</t>
+  </si>
+  <si>
+    <t>readRequestCount</t>
+  </si>
+  <si>
+    <t>读请求数</t>
+  </si>
+  <si>
+    <t>writeRequestCount</t>
+  </si>
+  <si>
+    <t>写请求数</t>
+  </si>
+  <si>
+    <t>compactedCellsCount</t>
+  </si>
+  <si>
+    <r>
+      <t>合并</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个数</t>
+    </r>
+  </si>
+  <si>
+    <t>majorCompactedCellsCount</t>
+  </si>
+  <si>
+    <r>
+      <t>大合并</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个数</t>
+    </r>
+  </si>
+  <si>
+    <t>flushedCellsSize</t>
+  </si>
+  <si>
+    <r>
+      <t>flush</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到磁盘的大小</t>
+    </r>
+  </si>
+  <si>
+    <t>blockedRequestCount</t>
+  </si>
+  <si>
+    <r>
+      <t>因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>memstore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大于阈值而引发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>flush</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的次数</t>
+    </r>
+  </si>
+  <si>
+    <t>splitRequestCount</t>
+  </si>
+  <si>
+    <r>
+      <t>region</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分裂请求次数</t>
+    </r>
+  </si>
+  <si>
+    <t>splitSuccessCounnt</t>
+  </si>
+  <si>
+    <r>
+      <t>region</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分裂成功次数</t>
+    </r>
+  </si>
+  <si>
+    <t>slowGetCount</t>
+  </si>
+  <si>
+    <r>
+      <t>请求完成时间超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1000ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的次数</t>
+    </r>
+  </si>
+  <si>
+    <t>numOpenConnections</t>
+  </si>
+  <si>
+    <r>
+      <t>该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>regionserver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打开的连接数</t>
+    </r>
+  </si>
+  <si>
+    <t>numActiveHandler</t>
+  </si>
+  <si>
+    <r>
+      <t>rpc handler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数</t>
+    </r>
+  </si>
+  <si>
+    <t>receivedBytes</t>
+  </si>
+  <si>
+    <t>收到数据量</t>
+  </si>
+  <si>
+    <t>sentBytes</t>
+  </si>
+  <si>
+    <t>发出数据量</t>
+  </si>
+  <si>
+    <t>HeapMemoryUsage  ---&gt;&gt;&gt;used</t>
+  </si>
+  <si>
+    <t>堆内存使用量</t>
+  </si>
+  <si>
+    <t>SyncTime_mean</t>
+  </si>
+  <si>
+    <r>
+      <t>WAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hdfs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的平均时间</t>
+    </r>
+  </si>
+  <si>
+    <t>regionCount</t>
+  </si>
+  <si>
+    <r>
+      <t>Regionserver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>region</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数量</t>
+    </r>
+  </si>
+  <si>
+    <t>memStoreSize</t>
+  </si>
+  <si>
+    <r>
+      <t>Regionserver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理的总</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>memstoresize</t>
+    </r>
+  </si>
+  <si>
+    <t>storeFileSize</t>
+  </si>
+  <si>
+    <r>
+      <t>该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Regionserver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>storefile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大小</t>
+    </r>
+  </si>
+  <si>
+    <t>staticIndexSize</t>
+  </si>
+  <si>
+    <r>
+      <t>该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>regionserver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所管理的表索引大小</t>
+    </r>
+  </si>
+  <si>
+    <t>storeFileCount</t>
+  </si>
+  <si>
+    <r>
+      <t>该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>regionserver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所管理的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>storefile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个数</t>
+    </r>
+  </si>
+  <si>
+    <t>hlogFileSize</t>
+  </si>
+  <si>
+    <r>
+      <t>WAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件大小</t>
+    </r>
+  </si>
+  <si>
+    <t>hlogFileCount</t>
+  </si>
+  <si>
+    <r>
+      <t>WAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件个数</t>
+    </r>
+  </si>
+  <si>
+    <t>storeCount</t>
+  </si>
+  <si>
+    <r>
+      <t>该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>regionserver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所管理的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个数</t>
+    </r>
+  </si>
+  <si>
+    <t>Name: java.lang:type=MemoryPool,name=Par Eden Space
+CollectionUsage—&gt;&gt;used</t>
+  </si>
+  <si>
+    <r>
+      <t>Eden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区使用空间大小</t>
+    </r>
+  </si>
+  <si>
+    <t>Name: java.lang:type=MemoryPool,name=CMS Old Gen
+CollectionUsage—&gt;&gt;used</t>
+  </si>
+  <si>
+    <t>老年代内存大小</t>
+  </si>
+  <si>
+    <t>Name: java.lang:type=MemoryPool,name=Par Survivor Space
+CollectionUsageà&gt; used</t>
+  </si>
+  <si>
+    <r>
+      <t>Survivor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内存大小</t>
+    </r>
+  </si>
+  <si>
+    <t>GcTimeMillis</t>
+  </si>
+  <si>
+    <r>
+      <t>GC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总时间</t>
+    </r>
+  </si>
+  <si>
+    <t>GcTimeMillisParNew</t>
+  </si>
+  <si>
+    <r>
+      <t>ParNew GC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+  </si>
+  <si>
+    <t>GcCount</t>
+  </si>
+  <si>
+    <r>
+      <t>GC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总次数</t>
+    </r>
+  </si>
+  <si>
+    <t>GcCountConcurrentMarkSweep</t>
+  </si>
+  <si>
+    <r>
+      <t>ConcurrentMarkSweep</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>总次数</t>
+    </r>
+  </si>
+  <si>
+    <t>GcTimeMillisConcurrentMarkSweep</t>
+  </si>
+  <si>
+    <r>
+      <t>ConcurrentMarkSweep GC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+  </si>
+  <si>
+    <t>ThreadsBlocked</t>
+  </si>
+  <si>
+    <r>
+      <t>Block</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4F4F4F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线程数</t>
+    </r>
+  </si>
+  <si>
+    <t>ThreadsWaiting</t>
+  </si>
+  <si>
+    <t>等待线程数</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
@@ -21,7 +881,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,23 +890,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -66,8 +944,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,9 +967,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,27 +999,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,9 +1022,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,30 +1044,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,37 +1061,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,155 +1253,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -394,96 +1424,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -492,138 +1442,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -943,14 +1911,516 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="46.625" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="48.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1"/>
+    <row r="2" ht="20.25" spans="2:4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="2:4">
+      <c r="B37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" ht="27" spans="2:4">
+      <c r="B38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" ht="40.5" spans="2:4">
+      <c r="B39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
